--- a/CountryData/Nigeria/Nigeria_Workbook.xlsx
+++ b/CountryData/Nigeria/Nigeria_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Nigeria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93265832-9788-4210-B833-C7F6EFB81DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{93265832-9788-4210-B833-C7F6EFB81DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7EE5152-BAE9-4AEF-9510-CB87E86F5935}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nigeria_Popup" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,13 +724,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -781,15 +774,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -805,6 +789,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
@@ -1205,43 +1204,47 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1598,14 +1601,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" customWidth="1"/>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" customWidth="1"/>
   </cols>
@@ -1619,7 +1624,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1632,7 +1637,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
@@ -1644,10 +1649,10 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3"/>
@@ -1659,10 +1664,10 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3"/>
@@ -1674,10 +1679,10 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="14">
         <v>161</v>
       </c>
       <c r="C6" s="3"/>
@@ -1689,10 +1694,10 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3"/>
@@ -1704,10 +1709,10 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1717,7 +1722,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1728,7 +1733,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3"/>
@@ -1752,7 +1757,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
@@ -1765,10 +1770,10 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1789,7 +1794,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3"/>
@@ -1802,10 +1807,10 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1815,10 +1820,10 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1828,11 +1833,11 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1841,10 +1846,10 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1854,11 +1859,11 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1867,11 +1872,11 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1880,10 +1885,10 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1893,7 +1898,7 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3"/>
@@ -1906,10 +1911,10 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1919,10 +1924,10 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1932,7 +1937,7 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3"/>
@@ -1945,7 +1950,7 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3"/>
@@ -1958,10 +1963,10 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1971,7 +1976,7 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3"/>
@@ -1995,7 +2000,7 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3"/>
@@ -2008,36 +2013,36 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2047,7 +2052,7 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="3"/>
@@ -2060,10 +2065,10 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2073,23 +2078,23 @@
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2099,25 +2104,25 @@
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2125,23 +2130,23 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2151,25 +2156,25 @@
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2188,7 +2193,7 @@
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="3"/>
@@ -2201,7 +2206,7 @@
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="3"/>
@@ -2214,7 +2219,7 @@
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="3"/>
@@ -2227,7 +2232,7 @@
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="3"/>
@@ -2240,15 +2245,15 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2262,11 +2267,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -2274,46 +2274,54 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=NG"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=NG"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=NG"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/nigeria"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/159/export-basket"/>
-    <hyperlink ref="A13" r:id="rId7" display="http://extwprlegs1.fao.org/docs/pdf/nig169358.pdf"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://www.vanguardngr.com/2021/04/labour-threatens-to-shut-ports-over-disregard-for-local-content-by-iocs/"/>
-    <hyperlink ref="A17" r:id="rId9" display="https://www.thisdaylive.com/index.php/2021/01/16/okowa-performs-groundbreaking-for-n15bn-tower-fabrication-firm-at-issele-uku/"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://www.thisdaylive.com/index.php/2020/11/15/ken-etete-local-content-act-has-helped-oil-servicing-industry-in-capacity-building/"/>
-    <hyperlink ref="A19" r:id="rId11" display="https://guardian.ng/news/national-assembly-initiates-new-bills-for-local-content-in-energy-sector/"/>
-    <hyperlink ref="A20" r:id="rId12" display="https://nairametrics.com/2020/10/08/ncdmb-and-nitda-to-set-up-a-committee-to-foster-development-of-local-content/"/>
-    <hyperlink ref="A21" r:id="rId13" display="https://www.premiumtimesng.com/regional/south-south-regional/408669-buhari-commissions-17-storey-nigerian-content-development-building-in-yenagoa.html"/>
-    <hyperlink ref="A22" r:id="rId14" display="https://www.oilreviewafrica.com/exploration/industry/nigeria-warns-oil-and-gas-companies-against-abusing-expatriate-quota"/>
-    <hyperlink ref="A23" r:id="rId15" display="http://buff.ly/2JAyDtM"/>
-    <hyperlink ref="A24" r:id="rId16" display="https://economywatchng.com/2019/02/local-content-breach-pengassan-set-to-tackle-exxonmobil/"/>
-    <hyperlink ref="A25" r:id="rId17" display="https://alternativeafrica.com/2018/08/07/nigerias-local-content-adoption-in-oil-gas-soars-to-28-per-cent-in-seven-years/"/>
-    <hyperlink ref="A26" r:id="rId18" display="https://thenationonlineng.net/jonathan-local-content-has-hit-32-in-oil-gas-industry/"/>
-    <hyperlink ref="A27" r:id="rId19" display="https://www.vanguardngr.com/2018/03/egina-probe-senate-summons-bp-3-3bn-oil-deal/"/>
-    <hyperlink ref="A28" r:id="rId20" display="https://www.shell.com.ng/media/2017-media-releases/petan-honours-shell-for-nigerian-content-development.html"/>
-    <hyperlink ref="A29" r:id="rId21" location=".YMtzMr6SmUl" display="http://www.accountantng.com/2017/11/ncdmb-releases-n61-18bn-local-content-fund-to-boi - .YMtzMr6SmUl"/>
-    <hyperlink ref="A32" r:id="rId22" display="https://www.pwyp.org/wp-content/uploads/2021/03/PolicyAlert-SDN-PWYP-summary-Nigeria-extractives.pdf"/>
-    <hyperlink ref="A33" r:id="rId23" display="https://www.alp.company/resources/indigenous-participation-nigerian-oil-and-gas-industry-light-local-content-legislation"/>
-    <hyperlink ref="A34" r:id="rId24" display="https://unctad.org/system/files/non-official-document/suc2017d6_en.pdf"/>
-    <hyperlink ref="A35" r:id="rId25" location=":~:text=The%20trend%20of%20increasing%20commodity,way%20to%20lower%20global%20prices.&amp;text=This%20report%20examines%20the%20interactions,economic%20growth%20and%20human%20development." display="https://unctad.org/webflyer/commodities-and-development-report-2017 - :~:text=The%20trend%20of%20increasing%20commodity,way%20to%20lower%20global%20prices.&amp;text=This%20report%20examines%20the%20interactions,economic%20growth%20and%20human%20development."/>
-    <hyperlink ref="A36" r:id="rId26" display="https://set.odi.org/wp-content/uploads/2017/10/SET-Nigeria_Backward-Integration_Final-report.pdf"/>
-    <hyperlink ref="A37" r:id="rId27" display="https://www.chathamhouse.org/publication/developing-businesses-scale-sub-saharan-africa-insights-nigeria-tanzania-uganda-zambia"/>
-    <hyperlink ref="A38" r:id="rId28" display="https://www.ogel.org/article.asp?key=3671"/>
-    <hyperlink ref="A39" r:id="rId29" display="https://www.sciencedirect.com/science/article/pii/S0301420716300599"/>
-    <hyperlink ref="A40" r:id="rId30" display="https://journals.sagepub.com/doi/10.1177/0952076715581635"/>
-    <hyperlink ref="A41" r:id="rId31" display="https://www.researchgate.net/publication/276349008_Local_Content_Policy_Human_Capital_Development_and_Sustainable_Business_Performance_in_the_Nigerian_Oil_and_Gas_Industry"/>
-    <hyperlink ref="A42" r:id="rId32" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content_Nigeria_May2014.pdf"/>
-    <hyperlink ref="A43" r:id="rId33" display="https://www.tandfonline.com/doi/abs/10.1080/20421338.2013.782145?journalCode=rajs20"/>
-    <hyperlink ref="A44" r:id="rId34" display="https://www.researchgate.net/publication/270752938_Signed_sealed_but_will_it_deliver_Nigeria%27s_local_content_bill_and_cross-sectoral_growth"/>
-    <hyperlink ref="A47" r:id="rId35" display="https://ncdmb.gov.ng/"/>
-    <hyperlink ref="A48" r:id="rId36" display="https://ncdmb.gov.ng/ncdf-frequently-asked-questions/"/>
-    <hyperlink ref="A49" r:id="rId37" display="https://ncifportal.boi.ng/ncif/public/"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=NG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=NG" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=NG" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/nigeria" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/159/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" display="http://extwprlegs1.fao.org/docs/pdf/nig169358.pdf" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A16" r:id="rId8" display="https://www.vanguardngr.com/2021/04/labour-threatens-to-shut-ports-over-disregard-for-local-content-by-iocs/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A17" r:id="rId9" display="https://www.thisdaylive.com/index.php/2021/01/16/okowa-performs-groundbreaking-for-n15bn-tower-fabrication-firm-at-issele-uku/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId10" display="https://www.thisdaylive.com/index.php/2020/11/15/ken-etete-local-content-act-has-helped-oil-servicing-industry-in-capacity-building/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A19" r:id="rId11" display="https://guardian.ng/news/national-assembly-initiates-new-bills-for-local-content-in-energy-sector/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A20" r:id="rId12" display="https://nairametrics.com/2020/10/08/ncdmb-and-nitda-to-set-up-a-committee-to-foster-development-of-local-content/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A21" r:id="rId13" display="https://www.premiumtimesng.com/regional/south-south-regional/408669-buhari-commissions-17-storey-nigerian-content-development-building-in-yenagoa.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A22" r:id="rId14" display="https://www.oilreviewafrica.com/exploration/industry/nigeria-warns-oil-and-gas-companies-against-abusing-expatriate-quota" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A23" r:id="rId15" display="http://buff.ly/2JAyDtM" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A24" r:id="rId16" display="https://economywatchng.com/2019/02/local-content-breach-pengassan-set-to-tackle-exxonmobil/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A25" r:id="rId17" display="https://alternativeafrica.com/2018/08/07/nigerias-local-content-adoption-in-oil-gas-soars-to-28-per-cent-in-seven-years/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A26" r:id="rId18" display="https://thenationonlineng.net/jonathan-local-content-has-hit-32-in-oil-gas-industry/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A27" r:id="rId19" display="https://www.vanguardngr.com/2018/03/egina-probe-senate-summons-bp-3-3bn-oil-deal/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A28" r:id="rId20" display="https://www.shell.com.ng/media/2017-media-releases/petan-honours-shell-for-nigerian-content-development.html" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A29" r:id="rId21" location=".YMtzMr6SmUl" display="http://www.accountantng.com/2017/11/ncdmb-releases-n61-18bn-local-content-fund-to-boi - .YMtzMr6SmUl" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A32" r:id="rId22" display="https://www.pwyp.org/wp-content/uploads/2021/03/PolicyAlert-SDN-PWYP-summary-Nigeria-extractives.pdf" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A33" r:id="rId23" display="https://www.alp.company/resources/indigenous-participation-nigerian-oil-and-gas-industry-light-local-content-legislation" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A34" r:id="rId24" display="https://unctad.org/system/files/non-official-document/suc2017d6_en.pdf" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A35" r:id="rId25" location=":~:text=The%20trend%20of%20increasing%20commodity,way%20to%20lower%20global%20prices.&amp;text=This%20report%20examines%20the%20interactions,economic%20growth%20and%20human%20development." display="https://unctad.org/webflyer/commodities-and-development-report-2017 - :~:text=The%20trend%20of%20increasing%20commodity,way%20to%20lower%20global%20prices.&amp;text=This%20report%20examines%20the%20interactions,economic%20growth%20and%20human%20development." xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A36" r:id="rId26" display="https://set.odi.org/wp-content/uploads/2017/10/SET-Nigeria_Backward-Integration_Final-report.pdf" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A37" r:id="rId27" display="https://www.chathamhouse.org/publication/developing-businesses-scale-sub-saharan-africa-insights-nigeria-tanzania-uganda-zambia" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A38" r:id="rId28" display="https://www.ogel.org/article.asp?key=3671" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A39" r:id="rId29" display="https://www.sciencedirect.com/science/article/pii/S0301420716300599" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A40" r:id="rId30" display="https://journals.sagepub.com/doi/10.1177/0952076715581635" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A41" r:id="rId31" display="https://www.researchgate.net/publication/276349008_Local_Content_Policy_Human_Capital_Development_and_Sustainable_Business_Performance_in_the_Nigerian_Oil_and_Gas_Industry" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A42" r:id="rId32" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content_Nigeria_May2014.pdf" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A43" r:id="rId33" display="https://www.tandfonline.com/doi/abs/10.1080/20421338.2013.782145?journalCode=rajs20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A44" r:id="rId34" display="https://www.researchgate.net/publication/270752938_Signed_sealed_but_will_it_deliver_Nigeria%27s_local_content_bill_and_cross-sectoral_growth" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A47" r:id="rId35" display="https://ncdmb.gov.ng/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A48" r:id="rId36" display="https://ncdmb.gov.ng/ncdf-frequently-asked-questions/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A49" r:id="rId37" display="https://ncifportal.boi.ng/ncif/public/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <webPublishItems count="1">
+    <webPublishItem id="14496" divId="Nigeria_Workbook_14496" sourceType="range" sourceRef="A1:I50" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Nigeria\Nigeria_Popup.htm" autoRepublish="1"/>
+  </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Nigeria/Nigeria_Workbook.xlsx
+++ b/CountryData/Nigeria/Nigeria_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Nigeria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{93265832-9788-4210-B833-C7F6EFB81DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7EE5152-BAE9-4AEF-9510-CB87E86F5935}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{93265832-9788-4210-B833-C7F6EFB81DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2170CA-48D4-4B66-A5B3-0D8C48FF6C83}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nigeria_Popup" sheetId="1" r:id="rId1"/>
@@ -82,230 +82,6 @@
     <t>ELLED Relevant News:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">April 2021 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Labour Threatens to Shut Ports Over Disregard for Local Content by IOCs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">January 2021 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Okowa Performs Groundbreaking for N15bn Tower Fabrication Firm at Issele-Uku</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>December 2020 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> KEN ETETE Local Content Act Has Helped Oil Servicing Industry in Capacity Building</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">October 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>National Assembly Initiates New Bills for Local Content in Energy Sector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">October 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NCDMB and NITDA to Set Up Committee to Foster Development of Local Content</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">August 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buhari Commissions 17-Storey Nigerian Content Development Building in Yenagoa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">May 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nigeria Warns Oil and Gas Companies Against Abusing Expatriate Quota</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">March 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nigerian Local Content Update</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">February 2019 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content Breach: PENGASSAN Set To Tackle ExxonMobil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>August 2018 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Nigeria’s Local Content Adoption in Oil &amp; Gas Soars to 28 per Cent in Seven Years</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">May 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jonathan: Local Content Has Hit 32% in Oil, Gas Industry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>March 2018 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Egina Probe: Senate Summons BP Over $3.3bn Oil Deal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">December 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PETAN Honours Shell For Nigerian Content Development</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">November 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NCDMB Releases N61.18bn Local Content Fund to BoI</t>
-    </r>
-  </si>
-  <si>
     <t>Analysis and Case Studies:</t>
   </si>
   <si>
@@ -587,6 +363,48 @@
   </si>
   <si>
     <t xml:space="preserve">Nigerian Content Intervention Fund </t>
+  </si>
+  <si>
+    <t>April 2021 – Labour Threatens to Shut Ports Over Disregard for Local Content by IOCs</t>
+  </si>
+  <si>
+    <t>January 2021 – Okowa Performs Groundbreaking for N15bn Tower Fabrication Firm at Issele-Uku</t>
+  </si>
+  <si>
+    <t>December 2020 – KEN ETETE Local Content Act Has Helped Oil Servicing Industry in Capacity Building</t>
+  </si>
+  <si>
+    <t>October 2020 – National Assembly Initiates New Bills for Local Content in Energy Sector</t>
+  </si>
+  <si>
+    <t>October 2020 – NCDMB and NITDA to Set Up Committee to Foster Development of Local Content</t>
+  </si>
+  <si>
+    <t>August 2020 – Buhari Commissions 17-Storey Nigerian Content Development Building in Yenagoa</t>
+  </si>
+  <si>
+    <t>May 2020 – Nigeria Warns Oil and Gas Companies Against Abusing Expatriate Quota</t>
+  </si>
+  <si>
+    <t>March 2020 – Nigerian Local Content Update</t>
+  </si>
+  <si>
+    <t>February 2019 – Local Content Breach: PENGASSAN Set To Tackle ExxonMobil</t>
+  </si>
+  <si>
+    <t>August 2018 – Nigeria’s Local Content Adoption in Oil &amp; Gas Soars to 28 per Cent in Seven Years</t>
+  </si>
+  <si>
+    <t>May 2018 – Jonathan: Local Content Has Hit 32% in Oil, Gas Industry</t>
+  </si>
+  <si>
+    <t>March 2018 – Egina Probe: Senate Summons BP Over $3.3bn Oil Deal</t>
+  </si>
+  <si>
+    <t>December 2017 – PETAN Honours Shell For Nigerian Content Development</t>
+  </si>
+  <si>
+    <t>November 2017 – NCDMB Releases N61.18bn Local Content Fund to BoI</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1025,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1241,10 +1059,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1604,13 +1424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.140625" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" customWidth="1"/>
   </cols>
@@ -1708,7 +1528,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1807,10 +1627,10 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="18"/>
+      <c r="A16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="19"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1820,10 +1640,10 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="18"/>
+      <c r="A17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="19"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1833,11 +1653,11 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1846,10 +1666,10 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="18"/>
+      <c r="A19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1859,11 +1679,11 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1872,11 +1692,11 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1885,10 +1705,10 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="18"/>
+      <c r="A22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1898,8 +1718,8 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>23</v>
+      <c r="A23" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1911,10 +1731,10 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="18"/>
+      <c r="A24" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="19"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1924,10 +1744,10 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="18"/>
+      <c r="A25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1937,8 +1757,8 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
+      <c r="A26" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1950,8 +1770,8 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
+      <c r="A27" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1963,10 +1783,10 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="18"/>
+      <c r="A28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="19"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1976,8 +1796,8 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>29</v>
+      <c r="A29" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2001,7 +1821,7 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2014,7 +1834,7 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -2027,7 +1847,7 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2040,7 +1860,7 @@
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="3"/>
@@ -2053,7 +1873,7 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2066,7 +1886,7 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="3"/>
@@ -2079,7 +1899,7 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -2092,7 +1912,7 @@
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="3"/>
@@ -2105,7 +1925,7 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -2118,7 +1938,7 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -2131,7 +1951,7 @@
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2144,7 +1964,7 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="3"/>
@@ -2157,7 +1977,7 @@
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -2170,7 +1990,7 @@
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2194,7 +2014,7 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2207,7 +2027,7 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2220,7 +2040,7 @@
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2233,7 +2053,7 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2287,7 +2107,7 @@
     <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/nigeria" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/159/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A13" r:id="rId7" display="http://extwprlegs1.fao.org/docs/pdf/nig169358.pdf" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="A16" r:id="rId8" display="https://www.vanguardngr.com/2021/04/labour-threatens-to-shut-ports-over-disregard-for-local-content-by-iocs/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A17" r:id="rId9" display="https://www.thisdaylive.com/index.php/2021/01/16/okowa-performs-groundbreaking-for-n15bn-tower-fabrication-firm-at-issele-uku/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="A18" r:id="rId10" display="https://www.thisdaylive.com/index.php/2020/11/15/ken-etete-local-content-act-has-helped-oil-servicing-industry-in-capacity-building/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
@@ -2295,13 +2115,13 @@
     <hyperlink ref="A20" r:id="rId12" display="https://nairametrics.com/2020/10/08/ncdmb-and-nitda-to-set-up-a-committee-to-foster-development-of-local-content/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="A21" r:id="rId13" display="https://www.premiumtimesng.com/regional/south-south-regional/408669-buhari-commissions-17-storey-nigerian-content-development-building-in-yenagoa.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="A22" r:id="rId14" display="https://www.oilreviewafrica.com/exploration/industry/nigeria-warns-oil-and-gas-companies-against-abusing-expatriate-quota" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A23" r:id="rId15" display="http://buff.ly/2JAyDtM" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A24" r:id="rId16" display="https://economywatchng.com/2019/02/local-content-breach-pengassan-set-to-tackle-exxonmobil/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="A25" r:id="rId17" display="https://alternativeafrica.com/2018/08/07/nigerias-local-content-adoption-in-oil-gas-soars-to-28-per-cent-in-seven-years/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A26" r:id="rId18" display="https://thenationonlineng.net/jonathan-local-content-has-hit-32-in-oil-gas-industry/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A27" r:id="rId19" display="https://www.vanguardngr.com/2018/03/egina-probe-senate-summons-bp-3-3bn-oil-deal/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="A28" r:id="rId20" display="https://www.shell.com.ng/media/2017-media-releases/petan-honours-shell-for-nigerian-content-development.html" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A29" r:id="rId21" location=".YMtzMr6SmUl" display="http://www.accountantng.com/2017/11/ncdmb-releases-n61-18bn-local-content-fund-to-boi - .YMtzMr6SmUl" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="A32" r:id="rId22" display="https://www.pwyp.org/wp-content/uploads/2021/03/PolicyAlert-SDN-PWYP-summary-Nigeria-extractives.pdf" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="A33" r:id="rId23" display="https://www.alp.company/resources/indigenous-participation-nigerian-oil-and-gas-industry-light-local-content-legislation" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="A34" r:id="rId24" display="https://unctad.org/system/files/non-official-document/suc2017d6_en.pdf" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
@@ -2318,10 +2138,20 @@
     <hyperlink ref="A47" r:id="rId35" display="https://ncdmb.gov.ng/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="A48" r:id="rId36" display="https://ncdmb.gov.ng/ncdf-frequently-asked-questions/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="A49" r:id="rId37" display="https://ncifportal.boi.ng/ncif/public/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A16:B16" r:id="rId38" display="April 2021 – Labour Threatens to Shut Ports Over Disregard for Local Content by IOCs" xr:uid="{F3A0F1B0-E91B-4E0C-8D9A-3D6AA73ACE09}"/>
+    <hyperlink ref="A17:B17" r:id="rId39" display="January 2021 – Okowa Performs Groundbreaking for N15bn Tower Fabrication Firm at Issele-Uku" xr:uid="{32FDFE65-0D9E-47CA-A076-0991D8527E69}"/>
+    <hyperlink ref="A18:C18" r:id="rId40" display="December 2020 – KEN ETETE Local Content Act Has Helped Oil Servicing Industry in Capacity Building" xr:uid="{1B3FB4B4-7087-43F6-BFCF-4F1E518BBAE1}"/>
+    <hyperlink ref="A19:B19" r:id="rId41" display="October 2020 – National Assembly Initiates New Bills for Local Content in Energy Sector" xr:uid="{C3E7A08A-C1E2-413D-916F-50D057F95667}"/>
+    <hyperlink ref="A20:C20" r:id="rId42" display="October 2020 – NCDMB and NITDA to Set Up Committee to Foster Development of Local Content" xr:uid="{484E5D4B-C0CD-4223-BADD-325E8141BF8C}"/>
+    <hyperlink ref="A21:C21" r:id="rId43" display="August 2020 – Buhari Commissions 17-Storey Nigerian Content Development Building in Yenagoa" xr:uid="{54A80D72-777F-49A4-9195-DC5DE27D11EF}"/>
+    <hyperlink ref="A22:B22" r:id="rId44" display="May 2020 – Nigeria Warns Oil and Gas Companies Against Abusing Expatriate Quota" xr:uid="{7202B10A-7DE6-4F70-AF1E-0F54D2F83609}"/>
+    <hyperlink ref="A24:B24" r:id="rId45" display="February 2019 – Local Content Breach: PENGASSAN Set To Tackle ExxonMobil" xr:uid="{23EF798C-6E5B-4B59-B864-672E359E045E}"/>
+    <hyperlink ref="A25:B25" r:id="rId46" display="August 2018 – Nigeria’s Local Content Adoption in Oil &amp; Gas Soars to 28 per Cent in Seven Years" xr:uid="{DEEBF983-DBA0-473A-AD38-E68807B460D5}"/>
+    <hyperlink ref="A28:B28" r:id="rId47" display="December 2017 – PETAN Honours Shell For Nigerian Content Development" xr:uid="{A8DC348E-1D23-4082-9E5C-CE2C97593469}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <webPublishItems count="1">
-    <webPublishItem id="14496" divId="Nigeria_Workbook_14496" sourceType="range" sourceRef="A1:I50" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Nigeria\Nigeria_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="9869" divId="Nigeria_Workbook_9869" sourceType="range" sourceRef="A1:I50" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Nigeria\Nigeria_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Nigeria/Nigeria_Workbook.xlsx
+++ b/CountryData/Nigeria/Nigeria_Workbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Nigeria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Nigeria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{93265832-9788-4210-B833-C7F6EFB81DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2170CA-48D4-4B66-A5B3-0D8C48FF6C83}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9054C6D8-398E-4DBC-B447-B0D97F0850EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nigeria_Popup" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>ELLED Relevant Legislation:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nigerian Oil and Gas Industry Content Development Act, 2010 (the “Act”) </t>
-  </si>
-  <si>
     <t>ELLED Relevant News:</t>
   </si>
   <si>
@@ -86,29 +83,507 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Adedeji et al. (2016) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Role of Local Content Policy in Local Value Creation in Nigeria's Oil Industry. A Structural Equation Modeling Approach </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De Vita et al. (2016) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nigerian Oil and Gas Industry Local Content Development: A Stakeholder Analysis </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monday James Unam (2015) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Local Content Policy, Human Capital Development and Sustainable Business Performance in the Nigerian Oil and Gas Industry </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jegede et al. (2013) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Knowledge Sharing and Innovation as it Affects the Local Content in the Oil and Gas Industry in Nigeria </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nwaokoro (2011) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Signed, Sealed but Will it deliver? Nigeria’s Local Content Bill and Cross-Sectoral Growth</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <t>Relevant Initiatives:</t>
+  </si>
+  <si>
+    <t>Nigerian Content Development and Monitoring Board (NCDMB)</t>
+  </si>
+  <si>
+    <t>Nigerian Content Development Fund (NCDF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigerian Content Intervention Fund </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>April 2021 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Labour Threatens to Shut Ports Over Disregard for Local Content by IOCs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">January 2021 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Okowa Performs Groundbreaking for N15bn Tower Fabrication Firm at Issele-Uku</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">December 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KEN ETETE Local Content Act Has Helped Oil Servicing Industry in Capacity Building</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">October 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>National Assembly Initiates New Bills for Local Content in Energy Sector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">October 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NCDMB and NITDA to Set Up Committee to Foster Development of Local Content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>August 2020 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Buhari Commissions 17-Storey Nigerian Content Development Building in Yenagoa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">May 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nigeria Warns Oil and Gas Companies Against Abusing Expatriate Quota</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">March 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nigerian Local Content Update</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">February 2019 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Content Breach: PENGASSAN Set To Tackle ExxonMobil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">August 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nigeria’s Local Content Adoption in Oil &amp; Gas Soars to 28 per Cent in Seven Years</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">May 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jonathan: Local Content Has Hit 32% in Oil, Gas Industry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">March 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Egina Probe: Senate Summons BP Over $3.3bn Oil Deal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">December 2017 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PETAN Honours Shell For Nigerian Content Development</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">November 2017 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NCDMB Releases N61.18bn Local Content Fund to BoI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Publish What You Pay and Policy Alert (2021) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>What’s in It for Us?” An Action-Research Case Study of Nigeria’s Extractive Industries</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What’s in It for Us? An Action-Research Case Study of Nigeria’s Extractive Industries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Dosunmu and Enitan (2019) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -118,13 +593,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">UNCTAD (2017) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -134,13 +616,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">UNCTAD (2017) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -150,13 +639,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">McCulloch et al. (2017) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -166,13 +662,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Shepherd and Honwana Welch (2017) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -182,44 +685,25 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Ezeain and Nwuke (2017) –</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Local Content and the Marginal Fields Programme: Challenges for Indigenous Participation in the Nigerian Oil Industry. Oil, Gas and Energy Law Intelligence</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adedeji et al. (2016) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The Role of Local Content Policy in Local Value Creation in Nigeria's Oil Industry. A Structural Equation Modeling Approach </t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Local Content and the Marginal Fields Programme: Challenges for Indigenous Participation in the Nigerian Oil Industry. Oil, Gas and Energy Law Intelligence </t>
     </r>
     <r>
       <rPr>
@@ -234,65 +718,20 @@
   </si>
   <si>
     <r>
-      <t>De Vita et al. (2016) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Nigerian Oil and Gas Industry Local Content Development: A Stakeholder Analysis </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monday James Unam (2015) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Local Content Policy, Human Capital Development and Sustainable Business Performance in the Nigerian Oil and Gas Industry </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Columbia Centre on Sustainable Investment (2014) –</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -301,110 +740,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Jegede et al. (2013) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Knowledge Sharing and Innovation as it Affects the Local Content in the Oil and Gas Industry in Nigeria </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nwaokoro (2011) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Signed, Sealed but Will it deliver? Nigeria’s Local Content Bill and Cross-Sectoral Growth</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <t>Relevant Initiatives:</t>
-  </si>
-  <si>
-    <t>Nigerian Content Development and Monitoring Board (NCDMB)</t>
-  </si>
-  <si>
-    <t>Nigerian Content Development Fund (NCDF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigerian Content Intervention Fund </t>
-  </si>
-  <si>
-    <t>April 2021 – Labour Threatens to Shut Ports Over Disregard for Local Content by IOCs</t>
-  </si>
-  <si>
-    <t>January 2021 – Okowa Performs Groundbreaking for N15bn Tower Fabrication Firm at Issele-Uku</t>
-  </si>
-  <si>
-    <t>December 2020 – KEN ETETE Local Content Act Has Helped Oil Servicing Industry in Capacity Building</t>
-  </si>
-  <si>
-    <t>October 2020 – National Assembly Initiates New Bills for Local Content in Energy Sector</t>
-  </si>
-  <si>
-    <t>October 2020 – NCDMB and NITDA to Set Up Committee to Foster Development of Local Content</t>
-  </si>
-  <si>
-    <t>August 2020 – Buhari Commissions 17-Storey Nigerian Content Development Building in Yenagoa</t>
-  </si>
-  <si>
-    <t>May 2020 – Nigeria Warns Oil and Gas Companies Against Abusing Expatriate Quota</t>
-  </si>
-  <si>
-    <t>March 2020 – Nigerian Local Content Update</t>
-  </si>
-  <si>
-    <t>February 2019 – Local Content Breach: PENGASSAN Set To Tackle ExxonMobil</t>
-  </si>
-  <si>
-    <t>August 2018 – Nigeria’s Local Content Adoption in Oil &amp; Gas Soars to 28 per Cent in Seven Years</t>
-  </si>
-  <si>
-    <t>May 2018 – Jonathan: Local Content Has Hit 32% in Oil, Gas Industry</t>
-  </si>
-  <si>
-    <t>March 2018 – Egina Probe: Senate Summons BP Over $3.3bn Oil Deal</t>
-  </si>
-  <si>
-    <t>December 2017 – PETAN Honours Shell For Nigerian Content Development</t>
-  </si>
-  <si>
-    <t>November 2017 – NCDMB Releases N61.18bn Local Content Fund to BoI</t>
+    <t>Nigerian Oil and Gas Industry Content Development Act, 2010 (the “Act”)</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1379,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1059,12 +1394,13 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1424,14 +1760,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1444,7 +1780,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1457,7 +1793,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
@@ -1472,7 +1808,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3"/>
@@ -1487,7 +1823,7 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3"/>
@@ -1502,7 +1838,7 @@
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>161</v>
       </c>
       <c r="C6" s="3"/>
@@ -1517,7 +1853,7 @@
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3"/>
@@ -1532,7 +1868,7 @@
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1542,7 +1878,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1553,12 +1889,12 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1590,12 +1926,12 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1603,10 +1939,10 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1615,7 +1951,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1627,182 +1963,182 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1821,7 +2157,7 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1833,116 +2169,116 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1950,25 +2286,25 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
+      <c r="A41" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1976,25 +2312,25 @@
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2013,8 +2349,8 @@
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>30</v>
+      <c r="A46" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2026,10 +2362,10 @@
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="3"/>
+      <c r="A47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="11"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2039,10 +2375,10 @@
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="3"/>
+      <c r="A48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="11"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2052,10 +2388,10 @@
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="3"/>
+      <c r="A49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="11"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2065,8 +2401,8 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2076,29 +2412,9 @@
       <c r="I50" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="2">
     <mergeCell ref="A41:I41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=NG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2107,7 +2423,7 @@
     <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/nigeria" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/159/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A13" r:id="rId7" display="Nigerian Oil and Gas Industry Content Development Act, 2010 (the “Act”) " xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="A16" r:id="rId8" display="https://www.vanguardngr.com/2021/04/labour-threatens-to-shut-ports-over-disregard-for-local-content-by-iocs/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A17" r:id="rId9" display="https://www.thisdaylive.com/index.php/2021/01/16/okowa-performs-groundbreaking-for-n15bn-tower-fabrication-firm-at-issele-uku/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="A18" r:id="rId10" display="https://www.thisdaylive.com/index.php/2020/11/15/ken-etete-local-content-act-has-helped-oil-servicing-industry-in-capacity-building/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
@@ -2125,7 +2441,7 @@
     <hyperlink ref="A32" r:id="rId22" display="https://www.pwyp.org/wp-content/uploads/2021/03/PolicyAlert-SDN-PWYP-summary-Nigeria-extractives.pdf" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="A33" r:id="rId23" display="https://www.alp.company/resources/indigenous-participation-nigerian-oil-and-gas-industry-light-local-content-legislation" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="A34" r:id="rId24" display="https://unctad.org/system/files/non-official-document/suc2017d6_en.pdf" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A35" r:id="rId25" location=":~:text=The%20trend%20of%20increasing%20commodity,way%20to%20lower%20global%20prices.&amp;text=This%20report%20examines%20the%20interactions,economic%20growth%20and%20human%20development." display="https://unctad.org/webflyer/commodities-and-development-report-2017 - :~:text=The%20trend%20of%20increasing%20commodity,way%20to%20lower%20global%20prices.&amp;text=This%20report%20examines%20the%20interactions,economic%20growth%20and%20human%20development." xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="A36" r:id="rId26" display="https://set.odi.org/wp-content/uploads/2017/10/SET-Nigeria_Backward-Integration_Final-report.pdf" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="A37" r:id="rId27" display="https://www.chathamhouse.org/publication/developing-businesses-scale-sub-saharan-africa-insights-nigeria-tanzania-uganda-zambia" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="A38" r:id="rId28" display="https://www.ogel.org/article.asp?key=3671" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
@@ -2148,10 +2464,18 @@
     <hyperlink ref="A24:B24" r:id="rId45" display="February 2019 – Local Content Breach: PENGASSAN Set To Tackle ExxonMobil" xr:uid="{23EF798C-6E5B-4B59-B864-672E359E045E}"/>
     <hyperlink ref="A25:B25" r:id="rId46" display="August 2018 – Nigeria’s Local Content Adoption in Oil &amp; Gas Soars to 28 per Cent in Seven Years" xr:uid="{DEEBF983-DBA0-473A-AD38-E68807B460D5}"/>
     <hyperlink ref="A28:B28" r:id="rId47" display="December 2017 – PETAN Honours Shell For Nigerian Content Development" xr:uid="{A8DC348E-1D23-4082-9E5C-CE2C97593469}"/>
+    <hyperlink ref="A32:F32" r:id="rId48" display="Publish What You Pay and Policy Alert (2021) – What’s in It for Us? An Action-Research Case Study of Nigeria’s Extractive Industries" xr:uid="{42170B7F-665C-44B4-8850-5C83244A9864}"/>
+    <hyperlink ref="A33:E33" r:id="rId49" display="Dosunmu and Enitan (2019) – Indigenous Participation in the Nigerian Oil and Gas Industry in Light of Local Content Legislation" xr:uid="{711C89FA-A496-4C68-88C3-818F2AF66AC0}"/>
+    <hyperlink ref="A34:B34" r:id="rId50" display="UNCTAD (2017) – Is Local Content a Catalyst for Development- The Case of Oil in Nigeria" xr:uid="{7E7B8F47-7AE9-4FBF-A4CA-CB18E5C86943}"/>
+    <hyperlink ref="A36:B36" r:id="rId51" display="McCulloch et al. (2017) – Local Content Policies and Backward Integration in Nigeria" xr:uid="{7F39A932-376F-4D23-86AD-B24E278285E5}"/>
+    <hyperlink ref="A37:G37" r:id="rId52" display="Shepherd and Honwana Welch (2017) – Developing Businesses of Scale in Sub-Saharan Africa: Insights from Nigeria, Tanzania, Uganda and Zambia" xr:uid="{CC892644-A931-458E-8AB9-0F283BD0A150}"/>
+    <hyperlink ref="A38:B38" r:id="rId53" display="Ezeain and Nwuke (2017) – Local Content and the Marginal Fields Programme: Challenges for Indigenous Participation in the Nigerian Oil Industry. Oil, Gas and Energy Law Intelligence (Paywall)" xr:uid="{8D147EF1-782B-4CB7-84C2-D0867E38C526}"/>
+    <hyperlink ref="A42:B42" r:id="rId54" display="Columbia Centre on Sustainable Investment (2014) – Local Content: Nigeria - Petroleum " xr:uid="{7C079748-3C64-4950-A5B1-2B1AA004D58C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId55"/>
   <webPublishItems count="1">
-    <webPublishItem id="9869" divId="Nigeria_Workbook_9869" sourceType="range" sourceRef="A1:I50" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Nigeria\Nigeria_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="31032" divId="Nigeria_Workbook_31032" sourceType="range" sourceRef="A1:I50" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Nigeria\Nigeria_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>